--- a/Head First In Java Words.xlsx
+++ b/Head First In Java Words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Documents/GitHub/Head_First_In_Java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{926D0528-B175-384B-B000-F84134442A74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41FF7646-1756-FF45-A700-5D8A528D74C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="12440" windowWidth="28040" windowHeight="17440" xr2:uid="{81C65BC7-F5CD-5143-B335-9D7029E4AD99}"/>
+    <workbookView xWindow="5560" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{81C65BC7-F5CD-5143-B335-9D7029E4AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>No.</t>
   </si>
@@ -67,6 +67,57 @@
   </si>
   <si>
     <t>parentheses</t>
+  </si>
+  <si>
+    <t>invoke</t>
+  </si>
+  <si>
+    <t>acronym</t>
+  </si>
+  <si>
+    <t>procedural</t>
+  </si>
+  <si>
+    <t>gazillion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nailed it </t>
+  </si>
+  <si>
+    <t>queasy</t>
+  </si>
+  <si>
+    <t>muse</t>
+  </si>
+  <si>
+    <t>sip</t>
+  </si>
+  <si>
+    <t>inherit</t>
+  </si>
+  <si>
+    <t>suspense</t>
+  </si>
+  <si>
+    <t>neuron</t>
+  </si>
+  <si>
+    <t>analogy</t>
+  </si>
+  <si>
+    <t>savvy</t>
+  </si>
+  <si>
+    <t>encapsulation</t>
+  </si>
+  <si>
+    <t>heap</t>
+  </si>
+  <si>
+    <t>allocate</t>
+  </si>
+  <si>
+    <t>scrambled up</t>
   </si>
 </sst>
 </file>
@@ -418,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512CD81B-A6B4-9247-9DCC-7C361E3445EC}">
-  <dimension ref="A3:D13"/>
+  <dimension ref="A3:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,6 +541,91 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Head First In Java Words.xlsx
+++ b/Head First In Java Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Documents/GitHub/Head_First_In_Java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41FF7646-1756-FF45-A700-5D8A528D74C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9FB43C22-1546-AD47-AB82-0C55D79BAD4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{81C65BC7-F5CD-5143-B335-9D7029E4AD99}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>No.</t>
   </si>
@@ -118,19 +118,58 @@
   </si>
   <si>
     <t>scrambled up</t>
+  </si>
+  <si>
+    <t>primitive</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>synonym</t>
+  </si>
+  <si>
+    <t>curve</t>
+  </si>
+  <si>
+    <t>metallic</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>spillage</t>
+  </si>
+  <si>
+    <t>literal</t>
+  </si>
+  <si>
+    <t>arithmetic</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>arguments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,8 +192,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512CD81B-A6B4-9247-9DCC-7C361E3445EC}">
-  <dimension ref="A3:D31"/>
+  <dimension ref="A3:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,7 +666,73 @@
         <v>30</v>
       </c>
     </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Head First In Java Words.xlsx
+++ b/Head First In Java Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Documents/GitHub/Head_First_In_Java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9FB43C22-1546-AD47-AB82-0C55D79BAD4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06F463F2-0E04-6045-B4D1-AA7FEACF3F35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{81C65BC7-F5CD-5143-B335-9D7029E4AD99}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>No.</t>
   </si>
@@ -151,6 +151,30 @@
   </si>
   <si>
     <t>arguments</t>
+  </si>
+  <si>
+    <t>convention</t>
+  </si>
+  <si>
+    <t>vaguely</t>
+  </si>
+  <si>
+    <t>dabble</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>pseudocode</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
+    <t>lurk</t>
+  </si>
+  <si>
+    <t>mock</t>
   </si>
 </sst>
 </file>
@@ -509,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512CD81B-A6B4-9247-9DCC-7C361E3445EC}">
-  <dimension ref="A3:D46"/>
+  <dimension ref="A3:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,6 +755,46 @@
         <v>41</v>
       </c>
     </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Head First In Java Words.xlsx
+++ b/Head First In Java Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Documents/GitHub/Head_First_In_Java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06F463F2-0E04-6045-B4D1-AA7FEACF3F35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{04700CF5-62D5-0A4B-AE95-69B317CE4F90}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{81C65BC7-F5CD-5143-B335-9D7029E4AD99}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>No.</t>
   </si>
@@ -175,13 +175,28 @@
   </si>
   <si>
     <t>mock</t>
+  </si>
+  <si>
+    <t>glorified</t>
+  </si>
+  <si>
+    <t>annotations</t>
+  </si>
+  <si>
+    <t>precedence</t>
+  </si>
+  <si>
+    <t>arcane</t>
+  </si>
+  <si>
+    <t>fabulous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,6 +206,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -216,9 +237,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512CD81B-A6B4-9247-9DCC-7C361E3445EC}">
-  <dimension ref="A3:D55"/>
+  <dimension ref="A3:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,6 +817,34 @@
         <v>49</v>
       </c>
     </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Head First In Java Words.xlsx
+++ b/Head First In Java Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Documents/GitHub/Head_First_In_Java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{04700CF5-62D5-0A4B-AE95-69B317CE4F90}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EB1D87C0-4C94-D741-B5F2-24D6CD764FE2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{81C65BC7-F5CD-5143-B335-9D7029E4AD99}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>No.</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>fabulous</t>
+  </si>
+  <si>
+    <t>vie</t>
+  </si>
+  <si>
+    <t>inheritance</t>
+  </si>
+  <si>
+    <t>overload</t>
   </si>
 </sst>
 </file>
@@ -555,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512CD81B-A6B4-9247-9DCC-7C361E3445EC}">
-  <dimension ref="A3:D62"/>
+  <dimension ref="A3:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,7 +852,19 @@
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Head First In Java Words.xlsx
+++ b/Head First In Java Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Documents/GitHub/Head_First_In_Java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EB1D87C0-4C94-D741-B5F2-24D6CD764FE2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8FC8BFA6-CD39-A444-A989-470B2FABEC1D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{81C65BC7-F5CD-5143-B335-9D7029E4AD99}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A3:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Head First In Java Words.xlsx
+++ b/Head First In Java Words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Documents/GitHub/Head_First_In_Java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8FC8BFA6-CD39-A444-A989-470B2FABEC1D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CCFC679A-277A-3542-9628-0187B156323F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{81C65BC7-F5CD-5143-B335-9D7029E4AD99}"/>
+    <workbookView xWindow="7120" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{81C65BC7-F5CD-5143-B335-9D7029E4AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>No.</t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>overload</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>designate</t>
+  </si>
+  <si>
+    <t>havoc</t>
+  </si>
+  <si>
+    <t>redundant</t>
+  </si>
+  <si>
+    <t>angular</t>
   </si>
 </sst>
 </file>
@@ -564,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512CD81B-A6B4-9247-9DCC-7C361E3445EC}">
-  <dimension ref="A3:D64"/>
+  <dimension ref="A3:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,6 +881,31 @@
         <v>57</v>
       </c>
     </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Head First In Java Words.xlsx
+++ b/Head First In Java Words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Documents/GitHub/Head_First_In_Java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CCFC679A-277A-3542-9628-0187B156323F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F55F12AD-C01A-D840-A5E3-43E4CDE402A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{81C65BC7-F5CD-5143-B335-9D7029E4AD99}"/>
+    <workbookView xWindow="10820" yWindow="1180" windowWidth="28040" windowHeight="17440" xr2:uid="{81C65BC7-F5CD-5143-B335-9D7029E4AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>No.</t>
   </si>
@@ -214,6 +214,30 @@
   </si>
   <si>
     <t>angular</t>
+  </si>
+  <si>
+    <t>cursor</t>
+  </si>
+  <si>
+    <t>pane</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>serialization</t>
+  </si>
+  <si>
+    <t>flattened</t>
+  </si>
+  <si>
+    <t>ascending order</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>Polygon</t>
   </si>
 </sst>
 </file>
@@ -579,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512CD81B-A6B4-9247-9DCC-7C361E3445EC}">
-  <dimension ref="A3:D70"/>
+  <dimension ref="A3:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -906,6 +930,46 @@
         <v>62</v>
       </c>
     </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
